--- a/Excel Report.xlsx
+++ b/Excel Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thuan\Desktop\Workspace\2023_CQ_BI_13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C339468-D234-404C-946A-1ED1F53615A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731EC12C-C4C7-4F6E-BD7F-27A8F6296F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,10 +24,10 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
     <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
-    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
+    <pivotCache cacheId="4" r:id="rId10"/>
+    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,6 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -313,7 +314,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 1!PivotTable1</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 1!PivotTable1</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1245,7 +1246,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 2!PivotTable2</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 2!PivotTable2</c:name>
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
@@ -1710,13 +1711,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -1803,13 +1804,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -1887,13 +1888,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -2003,10 +2004,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>61.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.497999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>61.554000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23.012499999999999</c:v>
@@ -2084,13 +2085,13 @@
                   <c:v>28.0075</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>43.4255</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>43.089500000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>103.32300000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43.4255</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>12.4245</c:v>
@@ -2162,13 +2163,13 @@
                   <c:v>24.186</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>4.4640000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>17.241499999999998</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>8.8680000000000003</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4.4640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>76.296000000000006</c:v>
@@ -2297,13 +2298,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -2390,13 +2391,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -2474,13 +2475,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -2590,13 +2591,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>51.366</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.1234999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44.638500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.366</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.585499999999996</c:v>
@@ -2664,10 +2665,10 @@
                 <c:pt idx="28">
                   <c:v>39.387999999999998</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>5.48</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>26.074999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
@@ -2725,13 +2726,13 @@
                   <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>26.212999999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>13.304</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>29.918499999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>26.212999999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59.503500000000003</c:v>
@@ -2863,13 +2864,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -2956,13 +2957,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -3040,13 +3041,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -3156,13 +3157,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>42.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>18.2745</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>24.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42.314999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17.3505</c:v>
@@ -3230,10 +3231,10 @@
                 <c:pt idx="30">
                   <c:v>67.311499999999995</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>30.138500000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>42.958999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
@@ -3303,13 +3304,13 @@
                   <c:v>35.395499999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>31.144500000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>59.169499999999999</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>86.369</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>31.144500000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>8.6579999999999995</c:v>
@@ -3426,13 +3427,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -3519,13 +3520,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -3603,13 +3604,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -3719,13 +3720,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>30.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>37.096999999999994</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>23.614000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.861000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6.9630000000000001</c:v>
@@ -3796,10 +3797,10 @@
                 <c:pt idx="30">
                   <c:v>65.177999999999997</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>46.494</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>6.4455</c:v>
                 </c:pt>
                 <c:pt idx="34">
@@ -3866,10 +3867,10 @@
                   <c:v>23.560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>13.298999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>110.93799999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>13.298999999999999</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>111.06099999999999</c:v>
@@ -3992,13 +3993,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -4085,13 +4086,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -4169,13 +4170,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -4285,13 +4286,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>27.256</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>12.667999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5.9060000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.256</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>29.9925</c:v>
@@ -4375,13 +4376,13 @@
                   <c:v>46.891999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>62.599499999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>15.867000000000001</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>31.99</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>62.599499999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.69899999999999995</c:v>
@@ -4453,13 +4454,13 @@
                   <c:v>9.32</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>14.978</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>80.357499999999987</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>80.004000000000005</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>14.978</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>39.479999999999997</c:v>
@@ -4579,13 +4580,13 @@
                 <c:ptCount val="89"/>
                 <c:lvl>
                   <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>4</c:v>
@@ -4672,13 +4673,13 @@
                     <c:v>31</c:v>
                   </c:pt>
                   <c:pt idx="31">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="32">
+                  <c:pt idx="33">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="34">
                     <c:v>4</c:v>
@@ -4756,13 +4757,13 @@
                     <c:v>28</c:v>
                   </c:pt>
                   <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
                     <c:v>2</c:v>
                   </c:pt>
-                  <c:pt idx="60">
+                  <c:pt idx="61">
                     <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="61">
-                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="62">
                     <c:v>4</c:v>
@@ -4872,10 +4873,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="89"/>
                 <c:pt idx="0">
+                  <c:v>12.609</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>9.9819999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.609</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>47.234499999999997</c:v>
@@ -4950,13 +4951,13 @@
                   <c:v>41.777500000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>10.381500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>56.119</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>49.585000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.381500000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6.2324999999999999</c:v>
@@ -5019,13 +5020,13 @@
                   <c:v>34.392000000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>35.347499999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>31.385000000000002</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>25.943999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>35.347499999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.512</c:v>
@@ -5336,7 +5337,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 3!PivotTable3</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 3!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6181,7 +6182,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 4!PivotTable4</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 4!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6761,7 +6762,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 5!PivotTable5</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 5!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7693,7 +7694,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BI Report.xlsx]Yêu cầu 6!PivotTable7</c:name>
+    <c:name>[Excel Report.xlsx]Yêu cầu 6!PivotTable7</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -11755,10 +11756,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11987,7 +11988,358 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.877923842592" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2AEE36E9-D8FE-4AB7-B9DD-BA9ADBC39633}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.877927314817" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B830C974-A81F-4ABD-A67E-ECF24565AF5B}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="4">
+    <cacheField name="[Dim Datetime].[Year Number].[Year Number]" caption="Year Number" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems count="1">
+        <s v="[Dim Datetime].[Year Number].&amp;[2019]" c="2019"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Measures].[Total Purchase Times]" caption="Total Purchase Times" numFmtId="0" hierarchy="20" level="32767"/>
+    <cacheField name="[Dim Datetime].[Month Number].[Month Number]" caption="Month Number" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems count="3">
+        <s v="[Dim Datetime].[Month Number].&amp;[1]" c="1"/>
+        <s v="[Dim Datetime].[Month Number].&amp;[2]" c="2"/>
+        <s v="[Dim Datetime].[Month Number].&amp;[3]" c="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Datetime].[Day Number].[Day Number]" caption="Day Number" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="31">
+        <s v="[Dim Datetime].[Day Number].&amp;[1]" c="1"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[10]" c="10"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[11]" c="11"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[12]" c="12"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[13]" c="13"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[14]" c="14"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[15]" c="15"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[16]" c="16"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[17]" c="17"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[18]" c="18"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[19]" c="19"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[2]" c="2"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[20]" c="20"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[21]" c="21"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[22]" c="22"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[23]" c="23"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[24]" c="24"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[25]" c="25"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[26]" c="26"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[27]" c="27"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[28]" c="28"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[29]" c="29"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[3]" c="3"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[30]" c="30"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[31]" c="31"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[4]" c="4"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[5]" c="5"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[6]" c="6"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[7]" c="7"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[8]" c="8"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[9]" c="9"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
+    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
+    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
+    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.889421296299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BADB998C-8883-466F-B3F5-CBB330D911AF}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Total Sold Products]" caption="Total Sold Products" numFmtId="0" hierarchy="19" level="32767"/>
+    <cacheField name="[Dim Datetime].[Year Number].[Year Number]" caption="Year Number" numFmtId="0" hierarchy="12" level="1">
+      <sharedItems count="1">
+        <s v="[Dim Datetime].[Year Number].&amp;[2019]" c="2019"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Datetime].[Month Number].[Month Number]" caption="Month Number" numFmtId="0" hierarchy="10" level="1">
+      <sharedItems count="3">
+        <s v="[Dim Datetime].[Month Number].&amp;[1]" c="1"/>
+        <s v="[Dim Datetime].[Month Number].&amp;[2]" c="2"/>
+        <s v="[Dim Datetime].[Month Number].&amp;[3]" c="3"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Datetime].[Day Number].[Day Number]" caption="Day Number" numFmtId="0" hierarchy="6" level="1">
+      <sharedItems count="31">
+        <s v="[Dim Datetime].[Day Number].&amp;[1]" c="1"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[10]" c="10"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[11]" c="11"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[12]" c="12"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[13]" c="13"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[14]" c="14"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[15]" c="15"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[16]" c="16"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[17]" c="17"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[18]" c="18"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[19]" c="19"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[2]" c="2"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[20]" c="20"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[21]" c="21"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[22]" c="22"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[23]" c="23"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[24]" c="24"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[25]" c="25"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[26]" c="26"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[27]" c="27"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[28]" c="28"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[29]" c="29"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[3]" c="3"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[30]" c="30"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[31]" c="31"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[4]" c="4"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[5]" c="5"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[6]" c="6"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[7]" c="7"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[8]" c="8"/>
+        <s v="[Dim Datetime].[Day Number].&amp;[9]" c="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Dim Datetime].[Hour Number].[Hour Number]" caption="Hour Number" numFmtId="0" hierarchy="8" level="1">
+      <sharedItems count="11">
+        <s v="[Dim Datetime].[Hour Number].&amp;[10]" c="10"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[11]" c="11"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[12]" c="12"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[13]" c="13"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[14]" c="14"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[15]" c="15"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[16]" c="16"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[17]" c="17"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[18]" c="18"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[19]" c="19"/>
+        <s v="[Dim Datetime].[Hour Number].&amp;[20]" c="20"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
+    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
+    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
+    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.889688078707" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6EE0E2D6-960B-4D09-BF35-A6B8F51AC69D}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="2">
+    <cacheField name="[Measures].[Total Female Customers]" caption="Total Female Customers" numFmtId="0" hierarchy="23" level="32767"/>
+    <cacheField name="[Dim Product].[Product Line Name].[Product Line Name]" caption="Product Line Name" numFmtId="0" hierarchy="18" level="1">
+      <sharedItems count="6">
+        <s v="[Dim Product].[Product Line Name].&amp;[Electronic accessories]" c="Electronic accessories"/>
+        <s v="[Dim Product].[Product Line Name].&amp;[Fashion accessories]" c="Fashion accessories"/>
+        <s v="[Dim Product].[Product Line Name].&amp;[Food and beverages]" c="Food and beverages"/>
+        <s v="[Dim Product].[Product Line Name].&amp;[Health and beauty]" c="Health and beauty"/>
+        <s v="[Dim Product].[Product Line Name].&amp;[Home and lifestyle]" c="Home and lifestyle"/>
+        <s v="[Dim Product].[Product Line Name].&amp;[Sports and travel]" c="Sports and travel"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="25">
+    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
+  </cacheHierarchies>
+  <kpis count="0"/>
+  <dimensions count="6">
+    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
+    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
+    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
+    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
+    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+  </dimensions>
+  <measureGroups count="1">
+    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
+  </measureGroups>
+  <maps count="5">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="0" dimension="1"/>
+    <map measureGroup="0" dimension="2"/>
+    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="4"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45290.853664467591" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{2AEE36E9-D8FE-4AB7-B9DD-BA9ADBC39633}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Total Income]" caption="Total Income" numFmtId="0" hierarchy="21" level="32767"/>
@@ -12135,357 +12487,6 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.877927314817" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{B830C974-A81F-4ABD-A67E-ECF24565AF5B}">
-  <cacheSource type="external" connectionId="2"/>
-  <cacheFields count="4">
-    <cacheField name="[Dim Datetime].[Year Number].[Year Number]" caption="Year Number" numFmtId="0" hierarchy="12" level="1">
-      <sharedItems count="1">
-        <s v="[Dim Datetime].[Year Number].&amp;[2019]" c="2019"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Total Purchase Times]" caption="Total Purchase Times" numFmtId="0" hierarchy="20" level="32767"/>
-    <cacheField name="[Dim Datetime].[Month Number].[Month Number]" caption="Month Number" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="3">
-        <s v="[Dim Datetime].[Month Number].&amp;[1]" c="1"/>
-        <s v="[Dim Datetime].[Month Number].&amp;[2]" c="2"/>
-        <s v="[Dim Datetime].[Month Number].&amp;[3]" c="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Datetime].[Day Number].[Day Number]" caption="Day Number" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="31">
-        <s v="[Dim Datetime].[Day Number].&amp;[1]" c="1"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[10]" c="10"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[11]" c="11"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[12]" c="12"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[13]" c="13"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[14]" c="14"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[15]" c="15"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[16]" c="16"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[17]" c="17"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[18]" c="18"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[19]" c="19"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[2]" c="2"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[20]" c="20"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[21]" c="21"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[22]" c="22"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[23]" c="23"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[24]" c="24"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[25]" c="25"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[26]" c="26"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[27]" c="27"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[28]" c="28"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[29]" c="29"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[3]" c="3"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[30]" c="30"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[31]" c="31"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[4]" c="4"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[5]" c="5"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[6]" c="6"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[7]" c="7"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[8]" c="8"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[9]" c="9"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
-    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
-    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
-    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
-    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
-  </measureGroups>
-  <maps count="5">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.889421296299" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{BADB998C-8883-466F-B3F5-CBB330D911AF}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="5">
-    <cacheField name="[Measures].[Total Sold Products]" caption="Total Sold Products" numFmtId="0" hierarchy="19" level="32767"/>
-    <cacheField name="[Dim Datetime].[Year Number].[Year Number]" caption="Year Number" numFmtId="0" hierarchy="12" level="1">
-      <sharedItems count="1">
-        <s v="[Dim Datetime].[Year Number].&amp;[2019]" c="2019"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Datetime].[Month Number].[Month Number]" caption="Month Number" numFmtId="0" hierarchy="10" level="1">
-      <sharedItems count="3">
-        <s v="[Dim Datetime].[Month Number].&amp;[1]" c="1"/>
-        <s v="[Dim Datetime].[Month Number].&amp;[2]" c="2"/>
-        <s v="[Dim Datetime].[Month Number].&amp;[3]" c="3"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Datetime].[Day Number].[Day Number]" caption="Day Number" numFmtId="0" hierarchy="6" level="1">
-      <sharedItems count="31">
-        <s v="[Dim Datetime].[Day Number].&amp;[1]" c="1"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[10]" c="10"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[11]" c="11"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[12]" c="12"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[13]" c="13"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[14]" c="14"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[15]" c="15"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[16]" c="16"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[17]" c="17"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[18]" c="18"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[19]" c="19"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[2]" c="2"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[20]" c="20"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[21]" c="21"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[22]" c="22"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[23]" c="23"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[24]" c="24"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[25]" c="25"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[26]" c="26"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[27]" c="27"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[28]" c="28"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[29]" c="29"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[3]" c="3"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[30]" c="30"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[31]" c="31"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[4]" c="4"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[5]" c="5"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[6]" c="6"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[7]" c="7"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[8]" c="8"/>
-        <s v="[Dim Datetime].[Day Number].&amp;[9]" c="9"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Dim Datetime].[Hour Number].[Hour Number]" caption="Hour Number" numFmtId="0" hierarchy="8" level="1">
-      <sharedItems count="11">
-        <s v="[Dim Datetime].[Hour Number].&amp;[10]" c="10"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[11]" c="11"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[12]" c="12"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[13]" c="13"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[14]" c="14"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[15]" c="15"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[16]" c="16"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[17]" c="17"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[18]" c="18"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[19]" c="19"/>
-        <s v="[Dim Datetime].[Hour Number].&amp;[20]" c="20"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
-    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
-    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
-    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
-    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
-  </measureGroups>
-  <maps count="5">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Thuan" refreshedDate="45284.889688078707" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6EE0E2D6-960B-4D09-BF35-A6B8F51AC69D}">
-  <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="2">
-    <cacheField name="[Measures].[Total Female Customers]" caption="Total Female Customers" numFmtId="0" hierarchy="23" level="32767"/>
-    <cacheField name="[Dim Product].[Product Line Name].[Product Line Name]" caption="Product Line Name" numFmtId="0" hierarchy="18" level="1">
-      <sharedItems count="6">
-        <s v="[Dim Product].[Product Line Name].&amp;[Electronic accessories]" c="Electronic accessories"/>
-        <s v="[Dim Product].[Product Line Name].&amp;[Fashion accessories]" c="Fashion accessories"/>
-        <s v="[Dim Product].[Product Line Name].&amp;[Food and beverages]" c="Food and beverages"/>
-        <s v="[Dim Product].[Product Line Name].&amp;[Health and beauty]" c="Health and beauty"/>
-        <s v="[Dim Product].[Product Line Name].&amp;[Home and lifestyle]" c="Home and lifestyle"/>
-        <s v="[Dim Product].[Product Line Name].&amp;[Sports and travel]" c="Sports and travel"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <cacheHierarchies count="25">
-    <cacheHierarchy uniqueName="[Dim Branch].[Branch Id]" caption="Branch Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Branch].[Branch Id].[All]" allUniqueName="[Dim Branch].[Branch Id].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Branch].[Nk Branch Code]" caption="Nk Branch Code" attribute="1" defaultMemberUniqueName="[Dim Branch].[Nk Branch Code].[All]" allUniqueName="[Dim Branch].[Nk Branch Code].[All]" dimensionUniqueName="[Dim Branch]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Id]" caption="Customer Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Id].[All]" allUniqueName="[Dim Customer Type].[Customer Type Id].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Customer Type].[Customer Type Name]" caption="Customer Type Name" attribute="1" defaultMemberUniqueName="[Dim Customer Type].[Customer Type Name].[All]" allUniqueName="[Dim Customer Type].[Customer Type Name].[All]" dimensionUniqueName="[Dim Customer Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Datetime Id]" caption="Datetime Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Datetime].[Datetime Id].[All]" allUniqueName="[Dim Datetime].[Datetime Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Id]" caption="Day Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Id].[All]" allUniqueName="[Dim Datetime].[Day Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Day Number]" caption="Day Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Day Number].[All]" allUniqueName="[Dim Datetime].[Day Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Datetime].[Hierarchy].[All]" allUniqueName="[Dim Datetime].[Hierarchy].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Hour Number]" caption="Hour Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Hour Number].[All]" allUniqueName="[Dim Datetime].[Hour Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Id]" caption="Month Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Id].[All]" allUniqueName="[Dim Datetime].[Month Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Month Number]" caption="Month Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Month Number].[All]" allUniqueName="[Dim Datetime].[Month Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Id]" caption="Year Id" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Id].[All]" allUniqueName="[Dim Datetime].[Year Id].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Datetime].[Year Number]" caption="Year Number" attribute="1" defaultMemberUniqueName="[Dim Datetime].[Year Number].[All]" allUniqueName="[Dim Datetime].[Year Number].[All]" dimensionUniqueName="[Dim Datetime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Id]" caption="Payment Type Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Id].[All]" allUniqueName="[Dim Payment Type].[Payment Type Id].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Payment Type].[Payment Type Name]" caption="Payment Type Name" attribute="1" defaultMemberUniqueName="[Dim Payment Type].[Payment Type Name].[All]" allUniqueName="[Dim Payment Type].[Payment Type Name].[All]" dimensionUniqueName="[Dim Payment Type]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Dim Product].[Hierarchy].[All]" allUniqueName="[Dim Product].[Hierarchy].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Dim Product].[Product Id].[All]" allUniqueName="[Dim Product].[Product Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Id]" caption="Product Line Id" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Id].[All]" allUniqueName="[Dim Product].[Product Line Id].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Product].[Product Line Name]" caption="Product Line Name" attribute="1" defaultMemberUniqueName="[Dim Product].[Product Line Name].[All]" allUniqueName="[Dim Product].[Product Line Name].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="2" unbalanced="0">
-      <fieldsUsage count="2">
-        <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Total Sold Products]" caption="Total Sold Products" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Purchase Times]" caption="Total Purchase Times" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Income]" caption="Total Income" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Rating Score]" caption="Total Rating Score" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[Total Female Customers]" caption="Total Female Customers" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="0"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[Fact Purchase Count]" caption="Fact Purchase Count" measure="1" displayFolder="" measureGroup="Fact Purchase" count="0"/>
-  </cacheHierarchies>
-  <kpis count="0"/>
-  <dimensions count="6">
-    <dimension name="Dim Branch" uniqueName="[Dim Branch]" caption="Dim Branch"/>
-    <dimension name="Dim Customer Type" uniqueName="[Dim Customer Type]" caption="Dim Customer Type"/>
-    <dimension name="Dim Datetime" uniqueName="[Dim Datetime]" caption="Dim Datetime"/>
-    <dimension name="Dim Payment Type" uniqueName="[Dim Payment Type]" caption="Dim Payment Type"/>
-    <dimension name="Dim Product" uniqueName="[Dim Product]" caption="Dim Product"/>
-    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
-  </dimensions>
-  <measureGroups count="1">
-    <measureGroup name="Fact Purchase" caption="Fact Purchase"/>
-  </measureGroups>
-  <maps count="5">
-    <map measureGroup="0" dimension="0"/>
-    <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="2"/>
-    <map measureGroup="0" dimension="3"/>
-    <map measureGroup="0" dimension="4"/>
-  </maps>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{281730E7-F07A-4392-BC3F-D20C416A4724}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
   <location ref="A1:B95" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
@@ -12890,7 +12891,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E095CA-97BD-4DB4-9F70-302DFD45DFAB}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{47E095CA-97BD-4DB4-9F70-302DFD45DFAB}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Giá trị" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11" fieldListSortAscending="1">
   <location ref="A1:H97" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -12921,9 +12922,9 @@
     </pivotField>
     <pivotField name="Ngày" axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" defaultSubtotal="0" defaultAttributeDrillState="1">
       <items count="31">
+        <item x="0"/>
         <item x="11"/>
         <item x="22"/>
-        <item x="0"/>
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
@@ -14621,7 +14622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y97"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -15400,18 +15401,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F32E981F-A6B1-4FA2-907F-B9A3A2E1D489}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z49" sqref="Z49"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -15463,101 +15464,119 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>12.497999999999999</v>
-      </c>
-      <c r="C6">
-        <v>2.1234999999999999</v>
-      </c>
-      <c r="D6">
-        <v>18.2745</v>
-      </c>
-      <c r="E6">
-        <v>37.096999999999994</v>
-      </c>
-      <c r="F6">
-        <v>12.667999999999999</v>
-      </c>
-      <c r="G6">
-        <v>9.9819999999999993</v>
-      </c>
-      <c r="H6">
-        <v>92.643000000000015</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="5">
+        <v>61.554000000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>51.366</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42.314999999999998</v>
+      </c>
+      <c r="E6" s="5">
+        <v>30.861000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>27.256</v>
+      </c>
+      <c r="G6" s="5">
+        <v>12.609</v>
+      </c>
+      <c r="H6" s="5">
+        <v>225.96100000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>44.638500000000001</v>
-      </c>
-      <c r="D7">
-        <v>24.8</v>
-      </c>
-      <c r="E7">
-        <v>23.614000000000001</v>
-      </c>
-      <c r="F7">
-        <v>5.9060000000000006</v>
-      </c>
-      <c r="H7">
-        <v>98.958500000000001</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="5">
+        <v>12.497999999999999</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.1234999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>18.2745</v>
+      </c>
+      <c r="E7" s="5">
+        <v>37.096999999999994</v>
+      </c>
+      <c r="F7" s="5">
+        <v>12.667999999999999</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="H7" s="5">
+        <v>92.642999999999986</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>61.554000000000002</v>
-      </c>
-      <c r="C8">
-        <v>51.366</v>
-      </c>
-      <c r="D8">
-        <v>42.314999999999998</v>
-      </c>
-      <c r="E8">
-        <v>30.861000000000001</v>
-      </c>
-      <c r="F8">
-        <v>27.256</v>
-      </c>
-      <c r="G8">
-        <v>12.609</v>
-      </c>
-      <c r="H8">
-        <v>225.96100000000004</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>44.638500000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>24.8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>23.614000000000001</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5.9060000000000006</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5">
+        <v>98.958500000000015</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>23.012499999999999</v>
       </c>
-      <c r="D9">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5">
         <v>17.3505</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>6.9630000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>29.9925</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="5"/>
+      <c r="H9" s="5">
         <v>77.3185</v>
       </c>
     </row>
@@ -15565,25 +15584,25 @@
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>52.819500000000005</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>43.585499999999996</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>19.619</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>3.56</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>1.595</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>47.234499999999997</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>168.4135</v>
       </c>
     </row>
@@ -15591,91 +15610,95 @@
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>23.56</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>38.819499999999998</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>36.211500000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>12.438000000000001</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>61.076000000000001</v>
       </c>
-      <c r="H11">
-        <v>172.10500000000002</v>
+      <c r="H11" s="5">
+        <v>172.10499999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>25.237000000000002</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>27.427499999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>47.111000000000004</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>16.7895</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>14.316000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>4.0830000000000002</v>
       </c>
-      <c r="H12">
-        <v>134.96400000000003</v>
+      <c r="H12" s="5">
+        <v>134.964</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>13.214499999999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>19.331</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>105.188</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
         <v>90.355500000000006</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>23.993500000000001</v>
       </c>
-      <c r="H13">
-        <v>252.08249999999998</v>
+      <c r="H13" s="5">
+        <v>252.08250000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>9.6349999999999998</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
         <v>8.0250000000000004</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
         <v>22.068000000000001</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>104.1455</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>143.87350000000001</v>
       </c>
     </row>
@@ -15683,19 +15706,21 @@
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>34.832999999999998</v>
       </c>
-      <c r="E15">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>64.218999999999994</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>41.418000000000006</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>29.099</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>169.56899999999999</v>
       </c>
     </row>
@@ -15703,16 +15728,19 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>31.016000000000002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>48.111000000000004</v>
       </c>
-      <c r="F16">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5">
         <v>21.5855</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
         <v>100.71250000000001</v>
       </c>
     </row>
@@ -15720,100 +15748,101 @@
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>53.339500000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>14.71</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>37.977499999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>72.124499999999998</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>19.992000000000001</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>48.75</v>
       </c>
-      <c r="H17">
-        <v>246.89349999999996</v>
+      <c r="H17" s="5">
+        <v>246.89349999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>29.980499999999999</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>22.991</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>27.766000000000002</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>7.2389999999999999</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>7.9225000000000003</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>20.824999999999999</v>
       </c>
-      <c r="H18">
-        <v>116.72400000000002</v>
+      <c r="H18" s="5">
+        <v>116.724</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>52.195</v>
       </c>
-      <c r="D19">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5">
         <v>3.6160000000000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>53.121499999999997</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>29.2485</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>50.705500000000001</v>
       </c>
-      <c r="H19">
-        <v>188.88650000000004</v>
+      <c r="H19" s="5">
+        <v>188.88650000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>48.521500000000003</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>37.510000000000005</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>61.350999999999999</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>74.951999999999998</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>32.790500000000002</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>27.934999999999999</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>283.06</v>
       </c>
     </row>
@@ -15821,25 +15850,25 @@
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>31.78</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>9.3179999999999996</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>34.326999999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>7.8419999999999996</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>7.548</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>113.42700000000001</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>204.24200000000002</v>
       </c>
     </row>
@@ -15847,19 +15876,21 @@
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5">
         <v>71.534499999999994</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <v>43.231499999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <v>4.0620000000000003</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>30.827000000000002</v>
       </c>
-      <c r="H22">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5">
         <v>149.655</v>
       </c>
     </row>
@@ -15867,97 +15898,99 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>48.652500000000003</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>6.5774999999999997</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>5.2439999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>7.9160000000000004</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>40.783499999999997</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <v>23.23</v>
       </c>
-      <c r="H23">
-        <v>132.40350000000001</v>
+      <c r="H23" s="5">
+        <v>132.40349999999998</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>41.374499999999998</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <v>113.601</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <v>20.707000000000001</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <v>9.4589999999999996</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>20.395</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="5">
         <v>28.497999999999998</v>
       </c>
-      <c r="H24">
-        <v>234.03449999999998</v>
+      <c r="H24" s="5">
+        <v>234.03450000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>72.826999999999998</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <v>9.3140000000000001</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>10.966000000000001</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>52.286000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <v>28.676000000000002</v>
       </c>
-      <c r="H25">
-        <v>174.06899999999996</v>
+      <c r="H25" s="5">
+        <v>174.06900000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>22.2455</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>53.551500000000004</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <v>4.9065000000000003</v>
       </c>
-      <c r="F26">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5">
         <v>3.4489999999999998</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="5">
         <v>29.757000000000001</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="5">
         <v>113.90950000000001</v>
       </c>
     </row>
@@ -15965,19 +15998,21 @@
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5">
         <v>38.203500000000005</v>
       </c>
-      <c r="E27">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
         <v>23.957999999999998</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>13.923</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="5">
         <v>5.0949999999999998</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="5">
         <v>81.179500000000004</v>
       </c>
     </row>
@@ -15985,19 +16020,21 @@
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>79.465000000000003</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>32.978500000000004</v>
       </c>
-      <c r="F28">
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5">
         <v>94.894999999999996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="5">
         <v>78.09899999999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="5">
         <v>285.4375</v>
       </c>
     </row>
@@ -16005,22 +16042,23 @@
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>54.12</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>62.983999999999995</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>41.056999999999995</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>83.177999999999997</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>15.9015</v>
       </c>
-      <c r="H29">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5">
         <v>257.2405</v>
       </c>
     </row>
@@ -16028,74 +16066,75 @@
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>28.007000000000001</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="5">
         <v>15.5085</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="5">
         <v>10.226000000000001</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="5">
         <v>66.024000000000001</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>90.337500000000006</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="5">
         <v>13.724</v>
       </c>
-      <c r="H30">
-        <v>223.82699999999997</v>
+      <c r="H30" s="5">
+        <v>223.827</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5">
         <v>19.762</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="5">
         <v>59.116999999999997</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="5">
         <v>93.42</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>5.0715000000000003</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="5">
         <v>34.891999999999996</v>
       </c>
-      <c r="H31">
-        <v>212.26250000000002</v>
+      <c r="H31" s="5">
+        <v>212.26249999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>26.951000000000001</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="5">
         <v>52.776499999999999</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="5">
         <v>19.231999999999999</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="5">
         <v>24.504999999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>56.100500000000004</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <v>41.191999999999993</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="5">
         <v>220.75700000000001</v>
       </c>
     </row>
@@ -16103,25 +16142,25 @@
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>9.6720000000000006</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="5">
         <v>4.0354999999999999</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="5">
         <v>109.4015</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="5">
         <v>39.664000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>18.651</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <v>56.657499999999992</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="5">
         <v>238.08150000000001</v>
       </c>
     </row>
@@ -16129,25 +16168,25 @@
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>33.227000000000004</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>39.387999999999998</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>19.859000000000002</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>25.215</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>5.7450000000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <v>44.021499999999996</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>167.45550000000003</v>
       </c>
     </row>
@@ -16155,19 +16194,21 @@
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>14.067</v>
       </c>
-      <c r="E35">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <v>21.698</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>51.892499999999998</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="5">
         <v>34.164500000000004</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="5">
         <v>121.822</v>
       </c>
     </row>
@@ -16175,22 +16216,23 @@
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>28.0075</v>
       </c>
-      <c r="D36">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
         <v>67.311499999999995</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="5">
         <v>65.177999999999997</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>46.891999999999996</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="5">
         <v>41.777500000000003</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="5">
         <v>249.16649999999998</v>
       </c>
     </row>
@@ -16198,171 +16240,183 @@
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38">
-        <v>43.089500000000001</v>
-      </c>
-      <c r="C38">
-        <v>5.48</v>
-      </c>
-      <c r="D38">
-        <v>30.138500000000001</v>
-      </c>
-      <c r="E38">
-        <v>46.494</v>
-      </c>
-      <c r="F38">
-        <v>15.867000000000001</v>
-      </c>
-      <c r="G38">
-        <v>56.119</v>
-      </c>
-      <c r="H38">
-        <v>197.18800000000002</v>
+        <v>11</v>
+      </c>
+      <c r="B38" s="5">
+        <v>43.4255</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <v>62.599499999999999</v>
+      </c>
+      <c r="G38" s="5">
+        <v>10.381500000000001</v>
+      </c>
+      <c r="H38" s="5">
+        <v>116.40650000000001</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39">
-        <v>103.32300000000001</v>
-      </c>
-      <c r="C39">
-        <v>26.074999999999999</v>
-      </c>
-      <c r="D39">
-        <v>42.958999999999996</v>
-      </c>
-      <c r="E39">
-        <v>6.4455</v>
-      </c>
-      <c r="F39">
-        <v>31.99</v>
-      </c>
-      <c r="G39">
-        <v>49.585000000000001</v>
-      </c>
-      <c r="H39">
-        <v>260.3775</v>
+        <v>12</v>
+      </c>
+      <c r="B39" s="5">
+        <v>43.089500000000001</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5.48</v>
+      </c>
+      <c r="D39" s="5">
+        <v>30.138500000000001</v>
+      </c>
+      <c r="E39" s="5">
+        <v>46.494</v>
+      </c>
+      <c r="F39" s="5">
+        <v>15.867000000000001</v>
+      </c>
+      <c r="G39" s="5">
+        <v>56.119</v>
+      </c>
+      <c r="H39" s="5">
+        <v>197.18799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40">
-        <v>43.4255</v>
-      </c>
-      <c r="F40">
-        <v>62.599499999999999</v>
-      </c>
-      <c r="G40">
-        <v>10.381500000000001</v>
-      </c>
-      <c r="H40">
-        <v>116.40650000000001</v>
+        <v>13</v>
+      </c>
+      <c r="B40" s="5">
+        <v>103.32300000000001</v>
+      </c>
+      <c r="C40" s="5">
+        <v>26.074999999999999</v>
+      </c>
+      <c r="D40" s="5">
+        <v>42.958999999999996</v>
+      </c>
+      <c r="E40" s="5">
+        <v>6.4455</v>
+      </c>
+      <c r="F40" s="5">
+        <v>31.99</v>
+      </c>
+      <c r="G40" s="5">
+        <v>49.585000000000001</v>
+      </c>
+      <c r="H40" s="5">
+        <v>260.3775</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>12.4245</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="5">
         <v>46.594000000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="5">
         <v>46.828000000000003</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="5">
         <v>3.3885000000000001</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>0.69899999999999995</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="5">
         <v>6.2324999999999999</v>
       </c>
-      <c r="H41">
-        <v>116.1665</v>
+      <c r="H41" s="5">
+        <v>116.16649999999998</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>27.067999999999998</v>
       </c>
-      <c r="D42">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5">
         <v>20.917999999999999</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>26.207999999999998</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>70.145499999999998</v>
       </c>
-      <c r="H42">
-        <v>144.33950000000002</v>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5">
+        <v>144.33949999999999</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>11.231999999999999</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="5">
         <v>8.92</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <v>39.985500000000002</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>11.475</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>59.6325</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="5">
         <v>7.1084999999999994</v>
       </c>
-      <c r="H43">
-        <v>138.35350000000003</v>
+      <c r="H43" s="5">
+        <v>138.3535</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>2.2789999999999999</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="5">
         <v>96.131</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <v>27.18</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>102.50149999999999</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>26.734500000000001</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="5">
         <v>89.374500000000012</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="5">
         <v>344.20050000000003</v>
       </c>
     </row>
@@ -16370,22 +16424,23 @@
       <c r="A45" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>0.98499999999999999</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="5">
         <v>79.698499999999996</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="5">
         <v>30.03</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="5">
         <v>53.563000000000002</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>77.849999999999994</v>
       </c>
-      <c r="H45">
+      <c r="G45" s="5"/>
+      <c r="H45" s="5">
         <v>242.12649999999999</v>
       </c>
     </row>
@@ -16393,48 +16448,49 @@
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>28.479999999999997</v>
       </c>
-      <c r="D46">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5">
         <v>31.983000000000001</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>17.784500000000001</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>7.9470000000000001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>69.61</v>
       </c>
-      <c r="H46">
-        <v>155.80449999999999</v>
+      <c r="H46" s="5">
+        <v>155.80450000000002</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>44.995000000000005</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="5">
         <v>3.7035</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="5">
         <v>25.811</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="5">
         <v>6.968</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>64.74799999999999</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="5">
         <v>3.347</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="5">
         <v>149.57250000000002</v>
       </c>
     </row>
@@ -16442,22 +16498,23 @@
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C48">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5">
         <v>30.964000000000002</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="5">
         <v>38.6</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="5">
         <v>49.396499999999996</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>21.672499999999999</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="5">
         <v>75.66</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>216.29299999999998</v>
       </c>
     </row>
@@ -16465,22 +16522,23 @@
       <c r="A49" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>7.1630000000000003</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="5">
         <v>19.366500000000002</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="5">
         <v>32.164000000000001</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="5">
         <v>37.948</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>46.167499999999997</v>
       </c>
-      <c r="H49">
+      <c r="G49" s="5"/>
+      <c r="H49" s="5">
         <v>142.809</v>
       </c>
     </row>
@@ -16488,45 +16546,47 @@
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>10.291</v>
       </c>
-      <c r="D50">
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
         <v>11.425999999999998</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="5">
         <v>4.1070000000000002</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>10.785</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="5">
         <v>7.8784999999999998</v>
       </c>
-      <c r="H50">
-        <v>44.487500000000004</v>
+      <c r="H50" s="5">
+        <v>44.487499999999997</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>4.5650000000000004</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="5">
         <v>46.521499999999996</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="5">
         <v>36.176000000000002</v>
       </c>
-      <c r="F51">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5">
         <v>23.766999999999999</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="5">
         <v>5.8319999999999999</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>116.86149999999998</v>
       </c>
     </row>
@@ -16534,65 +16594,69 @@
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C52">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5">
         <v>58.248000000000005</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="5">
         <v>70.602999999999994</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="5">
         <v>82.483499999999992</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>84.085000000000008</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="5">
         <v>29.855999999999998</v>
       </c>
-      <c r="H52">
-        <v>325.27550000000002</v>
+      <c r="H52" s="5">
+        <v>325.27549999999997</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>8.6869999999999994</v>
       </c>
-      <c r="D53">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5">
         <v>16.6035</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="5">
         <v>42.384500000000003</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>51.552000000000007</v>
       </c>
-      <c r="H53">
-        <v>119.227</v>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5">
+        <v>119.22700000000002</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>81.713499999999996</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="5">
         <v>64.522500000000008</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="5">
         <v>40.530999999999999</v>
       </c>
-      <c r="F54">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5">
         <v>41.644000000000005</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="5">
         <v>23.9495</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="5">
         <v>252.3605</v>
       </c>
     </row>
@@ -16600,19 +16664,21 @@
       <c r="A55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>44.369000000000007</v>
       </c>
-      <c r="E55">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
         <v>1.476</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>11.861499999999999</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="5">
         <v>13.532999999999999</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="5">
         <v>71.239500000000007</v>
       </c>
     </row>
@@ -16620,19 +16686,21 @@
       <c r="A56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>75.707999999999998</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="5">
         <v>22.545500000000001</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="5">
         <v>22.428000000000001</v>
       </c>
-      <c r="G56">
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
         <v>80.657499999999999</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="5">
         <v>201.339</v>
       </c>
     </row>
@@ -16640,22 +16708,23 @@
       <c r="A57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>26.841500000000003</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="5">
         <v>16.16</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="5">
         <v>32.881999999999998</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="5">
         <v>48.680000000000007</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>4.3135000000000003</v>
       </c>
-      <c r="H57">
+      <c r="G57" s="5"/>
+      <c r="H57" s="5">
         <v>128.87700000000001</v>
       </c>
     </row>
@@ -16663,19 +16732,21 @@
       <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>14.196</v>
       </c>
-      <c r="D58">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5">
         <v>20.750499999999999</v>
       </c>
-      <c r="F58">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5">
         <v>0.627</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="5">
         <v>30.795000000000002</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="5">
         <v>66.368500000000012</v>
       </c>
     </row>
@@ -16683,22 +16754,23 @@
       <c r="A59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>20.954999999999998</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="5">
         <v>3.2909999999999999</v>
       </c>
-      <c r="E59">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5">
         <v>55.839499999999994</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>2.7934999999999999</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="5">
         <v>33.421500000000002</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="5">
         <v>116.3005</v>
       </c>
     </row>
@@ -16706,48 +16778,49 @@
       <c r="A60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>14.694000000000001</v>
       </c>
-      <c r="D60">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5">
         <v>48.834000000000003</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="5">
         <v>9.5779999999999994</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>36.508499999999998</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="5">
         <v>1.7945</v>
       </c>
-      <c r="H60">
-        <v>111.40899999999999</v>
+      <c r="H60" s="5">
+        <v>111.40900000000001</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>4.7679999999999998</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="5">
         <v>20.13</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="5">
         <v>8.3770000000000007</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="5">
         <v>27.957000000000001</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>2.54</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="5">
         <v>65.869</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="5">
         <v>129.64099999999999</v>
       </c>
     </row>
@@ -16755,74 +16828,75 @@
       <c r="A62" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>58.444499999999998</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="5">
         <v>27.5715</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="5">
         <v>52.095499999999994</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="5">
         <v>66.86399999999999</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="5">
         <v>21.51</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="5">
         <v>2.4304999999999999</v>
       </c>
-      <c r="H62">
-        <v>228.916</v>
+      <c r="H62" s="5">
+        <v>228.91599999999994</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>2.7725</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="5">
         <v>4.6609999999999996</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="5">
         <v>54.298000000000002</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="5">
         <v>42.624499999999998</v>
       </c>
-      <c r="G63">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
         <v>10.3185</v>
       </c>
-      <c r="H63">
-        <v>114.67450000000001</v>
+      <c r="H63" s="5">
+        <v>114.67449999999999</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>43.982999999999997</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="5">
         <v>72.288499999999999</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="5">
         <v>35.395499999999998</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="5">
         <v>54.527500000000003</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>30.054500000000001</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="5">
         <v>42.772499999999994</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="5">
         <v>279.0215</v>
       </c>
     </row>
@@ -16830,22 +16904,23 @@
       <c r="A65" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>24.186</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>8.4</v>
       </c>
-      <c r="E65">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
         <v>23.560000000000002</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="5">
         <v>9.32</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="5">
         <v>34.392000000000003</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="5">
         <v>99.858000000000004</v>
       </c>
     </row>
@@ -16853,102 +16928,111 @@
       <c r="A66" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B67">
-        <v>17.241499999999998</v>
-      </c>
-      <c r="C67">
-        <v>13.304</v>
-      </c>
-      <c r="D67">
-        <v>59.169499999999999</v>
-      </c>
-      <c r="E67">
-        <v>110.93799999999999</v>
-      </c>
-      <c r="F67">
-        <v>80.357499999999987</v>
-      </c>
-      <c r="G67">
-        <v>31.385000000000002</v>
-      </c>
-      <c r="H67">
-        <v>312.39550000000008</v>
+        <v>11</v>
+      </c>
+      <c r="B67" s="5">
+        <v>4.4640000000000004</v>
+      </c>
+      <c r="C67" s="5">
+        <v>26.212999999999997</v>
+      </c>
+      <c r="D67" s="5">
+        <v>31.144500000000001</v>
+      </c>
+      <c r="E67" s="5">
+        <v>13.298999999999999</v>
+      </c>
+      <c r="F67" s="5">
+        <v>14.978</v>
+      </c>
+      <c r="G67" s="5">
+        <v>35.347499999999997</v>
+      </c>
+      <c r="H67" s="5">
+        <v>125.44599999999998</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68">
-        <v>8.8680000000000003</v>
-      </c>
-      <c r="C68">
-        <v>29.918499999999998</v>
-      </c>
-      <c r="D68">
-        <v>86.369</v>
-      </c>
-      <c r="F68">
-        <v>80.004000000000005</v>
-      </c>
-      <c r="G68">
-        <v>25.943999999999999</v>
-      </c>
-      <c r="H68">
-        <v>231.10350000000005</v>
+        <v>12</v>
+      </c>
+      <c r="B68" s="5">
+        <v>17.241499999999998</v>
+      </c>
+      <c r="C68" s="5">
+        <v>13.304</v>
+      </c>
+      <c r="D68" s="5">
+        <v>59.169499999999999</v>
+      </c>
+      <c r="E68" s="5">
+        <v>110.93799999999999</v>
+      </c>
+      <c r="F68" s="5">
+        <v>80.357499999999987</v>
+      </c>
+      <c r="G68" s="5">
+        <v>31.385000000000002</v>
+      </c>
+      <c r="H68" s="5">
+        <v>312.39549999999997</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69">
-        <v>4.4640000000000004</v>
-      </c>
-      <c r="C69">
-        <v>26.212999999999997</v>
-      </c>
-      <c r="D69">
-        <v>31.144500000000001</v>
-      </c>
-      <c r="E69">
-        <v>13.298999999999999</v>
-      </c>
-      <c r="F69">
-        <v>14.978</v>
-      </c>
-      <c r="G69">
-        <v>35.347499999999997</v>
-      </c>
-      <c r="H69">
-        <v>125.44599999999998</v>
+        <v>13</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8.8680000000000003</v>
+      </c>
+      <c r="C69" s="5">
+        <v>29.918499999999998</v>
+      </c>
+      <c r="D69" s="5">
+        <v>86.369</v>
+      </c>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5">
+        <v>80.004000000000005</v>
+      </c>
+      <c r="G69" s="5">
+        <v>25.943999999999999</v>
+      </c>
+      <c r="H69" s="5">
+        <v>231.10349999999997</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>76.296000000000006</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="5">
         <v>59.503500000000003</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="5">
         <v>8.6579999999999995</v>
       </c>
-      <c r="F70">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5">
         <v>39.479999999999997</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="5">
         <v>1.512</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="5">
         <v>185.4495</v>
       </c>
     </row>
@@ -16956,22 +17040,23 @@
       <c r="A71" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C71">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5">
         <v>19.9375</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="5">
         <v>57.5105</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="5">
         <v>111.06099999999999</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="5">
         <v>79.128500000000003</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="5">
         <v>29.071000000000002</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>296.70850000000007</v>
       </c>
     </row>
@@ -16979,65 +17064,69 @@
       <c r="A72" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>45.218999999999994</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="5">
         <v>3.9870000000000001</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="5">
         <v>50.529999999999994</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="5">
         <v>45.680500000000002</v>
       </c>
-      <c r="G72">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
         <v>1.85</v>
       </c>
-      <c r="H72">
-        <v>147.26650000000001</v>
+      <c r="H72" s="5">
+        <v>147.26649999999998</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>12.6595</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="5">
         <v>4.8970000000000002</v>
       </c>
-      <c r="E73">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5">
         <v>14.186</v>
       </c>
-      <c r="G73">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5">
         <v>36.745999999999995</v>
       </c>
-      <c r="H73">
-        <v>68.488500000000002</v>
+      <c r="H73" s="5">
+        <v>68.488499999999988</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>45.325000000000003</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="5">
         <v>30.497499999999999</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>4.4074999999999998</v>
       </c>
-      <c r="F74">
+      <c r="E74" s="5"/>
+      <c r="F74" s="5">
         <v>3.4079999999999999</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="5">
         <v>65.19</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>148.828</v>
       </c>
     </row>
@@ -17045,48 +17134,49 @@
       <c r="A75" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>77.045000000000002</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="5">
         <v>55.344999999999999</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="5">
         <v>109.727</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="5">
         <v>33.439</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>56.763999999999996</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="5">
         <v>23.587</v>
       </c>
-      <c r="H75">
-        <v>355.90700000000004</v>
+      <c r="H75" s="5">
+        <v>355.90699999999998</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>19.200499999999998</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="5">
         <v>51.23749999999999</v>
       </c>
-      <c r="E76">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5">
         <v>16.250500000000002</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>57.080500000000001</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="5">
         <v>6.8609999999999998</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="5">
         <v>150.63</v>
       </c>
     </row>
@@ -17094,25 +17184,25 @@
       <c r="A77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>24.125499999999999</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="5">
         <v>57.358999999999995</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="5">
         <v>18.986000000000001</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="5">
         <v>4.03</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="5">
         <v>22.480499999999999</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="5">
         <v>14.031000000000001</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="5">
         <v>141.012</v>
       </c>
     </row>
@@ -17120,48 +17210,49 @@
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>43.973999999999997</v>
       </c>
-      <c r="D78">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5">
         <v>46.756499999999996</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="5">
         <v>19.547999999999998</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>38.116</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="5">
         <v>26.727</v>
       </c>
-      <c r="H78">
-        <v>175.12150000000003</v>
+      <c r="H78" s="5">
+        <v>175.1215</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>7.9349999999999996</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="5">
         <v>29.594000000000001</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="5">
         <v>7.66</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="5">
         <v>12.525</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="5">
         <v>32.852000000000004</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="5">
         <v>7.7010000000000005</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="5">
         <v>98.266999999999996</v>
       </c>
     </row>
@@ -17169,194 +17260,207 @@
       <c r="A80" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>46.213999999999999</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="5">
         <v>37.195999999999998</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="5">
         <v>64.909499999999994</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="5">
         <v>30.994999999999997</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>34.686</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="5">
         <v>129.55350000000001</v>
       </c>
-      <c r="H80">
-        <v>343.55399999999997</v>
+      <c r="H80" s="5">
+        <v>343.55400000000003</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>9.83</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="5">
         <v>20.858499999999999</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="5">
         <v>62.230000000000004</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="5">
         <v>21.092500000000001</v>
       </c>
-      <c r="G81">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
         <v>26.103999999999999</v>
       </c>
-      <c r="H81">
-        <v>140.11499999999998</v>
+      <c r="H81" s="5">
+        <v>140.11500000000001</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C82">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5">
         <v>49.652500000000003</v>
       </c>
-      <c r="E82">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5">
         <v>40.061499999999995</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>1.5369999999999999</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="5">
         <v>58.962000000000003</v>
       </c>
-      <c r="H82">
-        <v>150.21299999999999</v>
+      <c r="H82" s="5">
+        <v>150.21300000000002</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>38.46</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="5">
         <v>15.494</v>
       </c>
-      <c r="E83">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5">
         <v>21.429000000000002</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>18.725999999999999</v>
       </c>
-      <c r="H83">
-        <v>94.108999999999995</v>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5">
+        <v>94.109000000000009</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C84">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5">
         <v>18.552999999999997</v>
       </c>
-      <c r="E84">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5">
         <v>21.573</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>21.4375</v>
       </c>
-      <c r="H84">
-        <v>61.563500000000005</v>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5">
+        <v>61.563499999999998</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>12.992000000000001</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="5">
         <v>77.109500000000011</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="5">
         <v>17.93</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="5">
         <v>10.6225</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>91.840999999999994</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="5">
         <v>62.856999999999999</v>
       </c>
-      <c r="H85">
-        <v>273.35200000000003</v>
+      <c r="H85" s="5">
+        <v>273.35199999999998</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>66.367499999999993</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="5">
         <v>46.606999999999999</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="5">
         <v>16.798500000000001</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="5">
         <v>63.382999999999996</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>66.758499999999998</v>
       </c>
-      <c r="H86">
-        <v>259.91450000000003</v>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5">
+        <v>259.91449999999998</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>26.3125</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="5">
         <v>36.008000000000003</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="5">
         <v>9.8979999999999997</v>
       </c>
-      <c r="G87">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>17.187000000000001</v>
       </c>
-      <c r="H87">
-        <v>89.405499999999989</v>
+      <c r="H87" s="5">
+        <v>89.405500000000004</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>21.036000000000001</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="5">
         <v>80.3</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="5">
         <v>38.945999999999998</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="5">
         <v>11.106</v>
       </c>
-      <c r="H88">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5">
         <v>151.38799999999998</v>
       </c>
     </row>
@@ -17364,22 +17468,23 @@
       <c r="A89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>44.484999999999999</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="5">
         <v>38.771000000000001</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="5">
         <v>18.308</v>
       </c>
-      <c r="F89">
+      <c r="E89" s="5"/>
+      <c r="F89" s="5">
         <v>52.006500000000003</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="5">
         <v>41.4315</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="5">
         <v>195.00199999999998</v>
       </c>
     </row>
@@ -17387,42 +17492,45 @@
       <c r="A90" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>20.22</v>
       </c>
-      <c r="D90">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5">
         <v>17.625</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="5">
         <v>56.888499999999993</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="5">
         <v>23.094000000000001</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="5">
         <v>47.766000000000005</v>
       </c>
-      <c r="H90">
-        <v>165.59349999999998</v>
+      <c r="H90" s="5">
+        <v>165.59350000000001</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>14.033999999999999</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="5">
         <v>13.448</v>
       </c>
-      <c r="E91">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
         <v>19.908999999999999</v>
       </c>
-      <c r="G91">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
         <v>60.845500000000001</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="5">
         <v>108.23650000000001</v>
       </c>
     </row>
@@ -17430,25 +17538,25 @@
       <c r="A92" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>41.067</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>15.472999999999999</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>7.4864999999999995</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <v>6.8564999999999996</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>15.230500000000001</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <v>7.3395000000000001</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>93.453000000000003</v>
       </c>
     </row>
@@ -17456,45 +17564,47 @@
       <c r="A93" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>29.670999999999999</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="5">
         <v>20.835000000000001</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="5">
         <v>9.9394999999999989</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="5">
         <v>32.865000000000002</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="5">
         <v>44.918999999999997</v>
       </c>
-      <c r="H93">
-        <v>138.2295</v>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5">
+        <v>138.22949999999997</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>41.373999999999995</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>37.337000000000003</v>
       </c>
-      <c r="E94">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5">
         <v>4.5555000000000003</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="5">
         <v>15.748000000000001</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="5">
         <v>7.1475</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="5">
         <v>106.16199999999999</v>
       </c>
     </row>
@@ -17502,25 +17612,25 @@
       <c r="A95" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>10.863</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="5">
         <v>35.69</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="5">
         <v>29.037500000000001</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="5">
         <v>69.054500000000004</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>41.17</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="5">
         <v>5.7679999999999998</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="5">
         <v>191.583</v>
       </c>
     </row>
@@ -17528,49 +17638,50 @@
       <c r="A96" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>26.436</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="5">
         <v>36.450500000000005</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="5">
         <v>82.117000000000004</v>
       </c>
-      <c r="F96">
+      <c r="E96" s="5"/>
+      <c r="F96" s="5">
         <v>47.602999999999994</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="5">
         <v>21.062999999999999</v>
       </c>
-      <c r="H96">
-        <v>213.6695</v>
+      <c r="H96" s="5">
+        <v>213.66949999999997</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B97">
-        <v>2554.1655000000001</v>
-      </c>
-      <c r="C97">
-        <v>2502.9950000000003</v>
-      </c>
-      <c r="D97">
-        <v>2557.3659999999995</v>
-      </c>
-      <c r="E97">
-        <v>2499.6660000000002</v>
-      </c>
-      <c r="F97">
-        <v>2708.6325000000011</v>
-      </c>
-      <c r="G97">
-        <v>2556.5439999999999</v>
-      </c>
-      <c r="H97">
-        <v>15379.369000000022</v>
+      <c r="B97" s="5">
+        <v>2554.1654999999987</v>
+      </c>
+      <c r="C97" s="5">
+        <v>2502.9950000000008</v>
+      </c>
+      <c r="D97" s="5">
+        <v>2557.366</v>
+      </c>
+      <c r="E97" s="5">
+        <v>2499.6660000000006</v>
+      </c>
+      <c r="F97" s="5">
+        <v>2708.6325000000002</v>
+      </c>
+      <c r="G97" s="5">
+        <v>2556.5439999999994</v>
+      </c>
+      <c r="H97" s="5">
+        <v>15379.369000000001</v>
       </c>
     </row>
   </sheetData>
